--- a/fuentes/contenidos/grado11/guion06/CS_11_06_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado11/guion06/CS_11_06_CO_Escaleta.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\fuentes\contenidos\grado11\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -17,7 +12,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
@@ -514,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +549,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,55 +669,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,15 +712,66 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -789,6 +806,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,19 +832,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="iquintanilla_20150923"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -879,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1123,1219 +1133,1397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.265625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14" style="14" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="57.1328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73046875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="3.86328125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="16.46484375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="28" customWidth="1"/>
-    <col min="16" max="16" width="4.796875" style="28" customWidth="1"/>
-    <col min="17" max="17" width="15.46484375" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.53125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.53125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="14"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="60.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="110.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="93.5703125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="9" style="14" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="14" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="35.42578125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="60.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="29" t="s">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="37"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="20">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="11" t="e">
+      <c r="Q3" s="27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R3" s="12" t="e">
+      <c r="R3" s="28" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="S3" s="11" t="e">
+      <c r="S3" s="27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="T3" s="13" t="e">
+      <c r="T3" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="U3" s="11" t="e">
+      <c r="U3" s="27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="20">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="23"/>
+      <c r="L4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="26">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="26">
         <v>4</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="26">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="26">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10" t="s">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="T8" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="26">
         <v>7</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="27">
         <v>6</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="26">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" s="3" t="s">
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="26">
         <v>9</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="M11" s="24"/>
+      <c r="N11" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="27">
         <v>6</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="26">
         <v>10</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="26"/>
+      <c r="G13" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="26">
         <v>11</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="R13" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="S13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="26">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10" t="s">
+      <c r="N14" s="24"/>
+      <c r="O14" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="27">
         <v>6</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="R14" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="27" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="26">
         <v>13</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10" t="s">
+      <c r="O15" s="26"/>
+      <c r="P15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="27">
         <v>6</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="R15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="S15" s="11" t="s">
+      <c r="S15" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" s="3" t="s">
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="26">
         <v>14</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="s">
+      <c r="M16" s="24"/>
+      <c r="N16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10" t="s">
+      <c r="O16" s="26"/>
+      <c r="P16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="27">
         <v>6</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="27" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" s="3" t="s">
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="27" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="6">
         <v>15</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="T17" s="26" t="s">
+      <c r="T17" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" s="3" t="s">
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="27" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="6">
         <v>16</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="10">
         <v>6</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="26" t="s">
+      <c r="T18" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="27" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="6">
         <v>17</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="24"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" s="3" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="27" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="6">
         <v>18</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20" t="s">
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="10">
         <v>6</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="T20" s="26" t="s">
+      <c r="T20" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" s="3" t="s">
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="27" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="6">
         <v>19</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="6" t="s">
+      <c r="O21" s="6"/>
+      <c r="P21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="10">
         <v>6</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="T21" s="26" t="s">
+      <c r="T21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U2">
@@ -2400,7 +2588,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[2]DATOS!#REF!</xm:f>
+            <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>M17:N21 I17:I21 K20:K21 P17:P20</xm:sqref>
         </x14:dataValidation>
@@ -2418,27 +2606,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.73046875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2479,7 +2667,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2550,7 +2738,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3332,7 +3520,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3345,7 +3533,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3358,7 +3546,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3371,7 +3559,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3384,7 +3572,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3397,7 +3585,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3410,7 +3598,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3423,7 +3611,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3436,7 +3624,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3449,7 +3637,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3462,7 +3650,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3476,7 +3664,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3490,7 +3678,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3504,7 +3692,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3518,7 +3706,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3532,7 +3720,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3546,7 +3734,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3560,7 +3748,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3574,7 +3762,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3588,7 +3776,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3602,7 +3790,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3616,7 +3804,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3630,7 +3818,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3644,7 +3832,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3658,7 +3846,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3672,7 +3860,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3686,7 +3874,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3700,7 +3888,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3714,7 +3902,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3728,7 +3916,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3742,7 +3930,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3756,7 +3944,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3770,7 +3958,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3784,7 +3972,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3798,7 +3986,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3812,7 +4000,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3826,7 +4014,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3840,7 +4028,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3854,7 +4042,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3868,7 +4056,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3882,7 +4070,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3896,7 +4084,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3910,7 +4098,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3924,7 +4112,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3938,7 +4126,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3952,7 +4140,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3966,7 +4154,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3980,7 +4168,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3994,7 +4182,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4008,7 +4196,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4022,7 +4210,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4036,7 +4224,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4050,7 +4238,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4064,7 +4252,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4078,7 +4266,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4092,7 +4280,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4106,7 +4294,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4120,7 +4308,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4134,7 +4322,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4148,7 +4336,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4162,7 +4350,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4176,7 +4364,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4190,7 +4378,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4204,7 +4392,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4218,7 +4406,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4232,7 +4420,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4246,7 +4434,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4260,7 +4448,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4274,7 +4462,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4288,7 +4476,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4302,7 +4490,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4316,7 +4504,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4330,7 +4518,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado11/guion06/CS_11_06_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado11/guion06/CS_11_06_CO_Escaleta.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -772,6 +772,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -806,12 +812,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,9 +823,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1135,9 +1132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1153,7 @@
     <col min="12" max="12" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" style="3" customWidth="1"/>
     <col min="14" max="14" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="93.5703125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="107.42578125" style="14" customWidth="1"/>
     <col min="16" max="16" width="9" style="14" customWidth="1"/>
     <col min="17" max="17" width="7.7109375" style="14" customWidth="1"/>
     <col min="18" max="18" width="7.85546875" style="3" customWidth="1"/>
@@ -1167,94 +1164,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="39" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="45"/>
       <c r="M2" s="15" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1685,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="24"/>
-      <c r="N9" s="48" t="s">
+      <c r="N9" s="36" t="s">
         <v>36</v>
       </c>
       <c r="O9" s="26" t="s">
@@ -1819,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="M11" s="24"/>
-      <c r="N11" s="48" t="s">
+      <c r="N11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="26" t="s">
@@ -2091,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="M15" s="24"/>
-      <c r="N15" s="48" t="s">
+      <c r="N15" s="36" t="s">
         <v>36</v>
       </c>
       <c r="O15" s="26"/>
@@ -2158,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="M16" s="24"/>
-      <c r="N16" s="48" t="s">
+      <c r="N16" s="36" t="s">
         <v>84</v>
       </c>
       <c r="O16" s="26"/>
@@ -2404,7 +2401,7 @@
         <v>8</v>
       </c>
       <c r="M20" s="9"/>
-      <c r="N20" s="49" t="s">
+      <c r="N20" s="37" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="6"/>
@@ -2469,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="M21" s="9"/>
-      <c r="N21" s="49" t="s">
+      <c r="N21" s="37" t="s">
         <v>52</v>
       </c>
       <c r="O21" s="6"/>
@@ -2643,7 +2640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +2683,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2705,7 +2702,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2718,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2755,7 +2752,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2770,7 +2767,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2785,7 +2782,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2800,7 +2797,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2815,7 +2812,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2830,7 +2827,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2845,7 +2842,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2860,7 +2857,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2875,7 +2872,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2890,7 +2887,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -2904,7 +2901,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -2918,7 +2915,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -2932,7 +2929,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -2946,7 +2943,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2961,7 +2958,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2976,7 +2973,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2991,7 +2988,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3006,7 +3003,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3021,7 +3018,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3036,7 +3033,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3051,7 +3048,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3066,7 +3063,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3081,7 +3078,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3096,7 +3093,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3111,7 +3108,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3126,7 +3123,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3141,7 +3138,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3156,7 +3153,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3171,7 +3168,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3186,7 +3183,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3201,7 +3198,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3216,7 +3213,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3231,7 +3228,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3246,7 +3243,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3261,7 +3258,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3276,7 +3273,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3291,7 +3288,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3306,7 +3303,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3321,7 +3318,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3336,7 +3333,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3351,7 +3348,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3366,7 +3363,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3378,7 +3375,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3390,7 +3387,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3403,7 +3400,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3416,7 +3413,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3429,7 +3426,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3442,7 +3439,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3455,7 +3452,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3468,7 +3465,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3481,7 +3478,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3494,7 +3491,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3507,7 +3504,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
